--- a/exports/sol-usd_predictions_last90.xlsx
+++ b/exports/sol-usd_predictions_last90.xlsx
@@ -458,1441 +458,1441 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-14</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.59</v>
+        <v>189.77</v>
       </c>
       <c r="C2" t="n">
-        <v>198.69</v>
+        <v>187.74</v>
       </c>
       <c r="D2" t="n">
-        <v>6.11</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>185.74</v>
+        <v>191.16</v>
       </c>
       <c r="C3" t="n">
-        <v>190.53</v>
+        <v>190.72</v>
       </c>
       <c r="D3" t="n">
-        <v>4.79</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-08-16</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.77</v>
+        <v>183.07</v>
       </c>
       <c r="C4" t="n">
-        <v>187.81</v>
+        <v>187.83</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.95</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-08-17</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>191.16</v>
+        <v>176.11</v>
       </c>
       <c r="C5" t="n">
-        <v>190.76</v>
+        <v>180.34</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-08-18</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>183.07</v>
+        <v>187.59</v>
       </c>
       <c r="C6" t="n">
-        <v>187.86</v>
+        <v>179.4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.79</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.11</v>
+        <v>180.28</v>
       </c>
       <c r="C7" t="n">
-        <v>180.38</v>
+        <v>185.26</v>
       </c>
       <c r="D7" t="n">
-        <v>4.27</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-08-20</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.59</v>
+        <v>200.65</v>
       </c>
       <c r="C8" t="n">
-        <v>179.44</v>
+        <v>184.47</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.140000000000001</v>
+        <v>-16.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-08-21</t>
+          <t>2025-08-23</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>180.28</v>
+        <v>203.94</v>
       </c>
       <c r="C9" t="n">
-        <v>185.29</v>
+        <v>200.07</v>
       </c>
       <c r="D9" t="n">
-        <v>5.01</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-08-24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>200.65</v>
+        <v>205.85</v>
       </c>
       <c r="C10" t="n">
-        <v>184.49</v>
+        <v>204.25</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.16</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-08-23</t>
+          <t>2025-08-25</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>203.94</v>
+        <v>187.28</v>
       </c>
       <c r="C11" t="n">
-        <v>200.07</v>
+        <v>201.13</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.87</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-08-24</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>205.85</v>
+        <v>195.91</v>
       </c>
       <c r="C12" t="n">
-        <v>204.22</v>
+        <v>190.23</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.63</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-08-27</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>187.28</v>
+        <v>202.92</v>
       </c>
       <c r="C13" t="n">
-        <v>201.18</v>
+        <v>197.4</v>
       </c>
       <c r="D13" t="n">
-        <v>13.9</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.91</v>
+        <v>214.41</v>
       </c>
       <c r="C14" t="n">
-        <v>190.32</v>
+        <v>204.22</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.58</v>
+        <v>-10.19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>202.92</v>
+        <v>205.22</v>
       </c>
       <c r="C15" t="n">
-        <v>197.46</v>
+        <v>210.63</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.46</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-08-30</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>214.41</v>
+        <v>202.86</v>
       </c>
       <c r="C16" t="n">
-        <v>204.22</v>
+        <v>205.43</v>
       </c>
       <c r="D16" t="n">
-        <v>-10.19</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-08-31</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>205.22</v>
+        <v>200.86</v>
       </c>
       <c r="C17" t="n">
-        <v>210.61</v>
+        <v>203.95</v>
       </c>
       <c r="D17" t="n">
-        <v>5.39</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-08-30</t>
+          <t>2025-09-01</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>202.86</v>
+        <v>197.11</v>
       </c>
       <c r="C18" t="n">
-        <v>205.44</v>
+        <v>200.16</v>
       </c>
       <c r="D18" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-08-31</t>
+          <t>2025-09-02</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200.86</v>
+        <v>209.48</v>
       </c>
       <c r="C19" t="n">
-        <v>203.98</v>
+        <v>199.33</v>
       </c>
       <c r="D19" t="n">
-        <v>3.12</v>
+        <v>-10.15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-09-01</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>197.11</v>
+        <v>210.75</v>
       </c>
       <c r="C20" t="n">
-        <v>200.19</v>
+        <v>208.67</v>
       </c>
       <c r="D20" t="n">
-        <v>3.08</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-04</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>209.48</v>
+        <v>202.56</v>
       </c>
       <c r="C21" t="n">
-        <v>199.35</v>
+        <v>209.23</v>
       </c>
       <c r="D21" t="n">
-        <v>-10.13</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-09-03</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.75</v>
+        <v>203.5</v>
       </c>
       <c r="C22" t="n">
-        <v>208.65</v>
+        <v>202.64</v>
       </c>
       <c r="D22" t="n">
-        <v>-2.09</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-09-04</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>202.56</v>
+        <v>200.25</v>
       </c>
       <c r="C23" t="n">
-        <v>209.18</v>
+        <v>203.31</v>
       </c>
       <c r="D23" t="n">
-        <v>6.62</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>203.5</v>
+        <v>206.47</v>
       </c>
       <c r="C24" t="n">
-        <v>202.66</v>
+        <v>201.67</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.84</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-09-06</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.25</v>
+        <v>214.19</v>
       </c>
       <c r="C25" t="n">
-        <v>203.34</v>
+        <v>206.25</v>
       </c>
       <c r="D25" t="n">
-        <v>3.1</v>
+        <v>-7.94</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-09-07</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>206.47</v>
+        <v>217.25</v>
       </c>
       <c r="C26" t="n">
-        <v>201.69</v>
+        <v>213.97</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.78</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>214.19</v>
+        <v>223.99</v>
       </c>
       <c r="C27" t="n">
-        <v>206.26</v>
+        <v>218.31</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.93</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>217.25</v>
+        <v>228.76</v>
       </c>
       <c r="C28" t="n">
-        <v>213.95</v>
+        <v>223.7</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.3</v>
+        <v>-5.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.99</v>
+        <v>242.3</v>
       </c>
       <c r="C29" t="n">
-        <v>218.29</v>
+        <v>230.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.7</v>
+        <v>-12.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>228.76</v>
+        <v>242.6</v>
       </c>
       <c r="C30" t="n">
-        <v>223.71</v>
+        <v>240.63</v>
       </c>
       <c r="D30" t="n">
-        <v>-5.04</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>242.3</v>
+        <v>240.56</v>
       </c>
       <c r="C31" t="n">
-        <v>230.04</v>
+        <v>240.99</v>
       </c>
       <c r="D31" t="n">
-        <v>-12.26</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-09-13</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>242.6</v>
+        <v>234.36</v>
       </c>
       <c r="C32" t="n">
-        <v>240.64</v>
+        <v>238.54</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.95</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-09-14</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>240.56</v>
+        <v>236.99</v>
       </c>
       <c r="C33" t="n">
-        <v>241</v>
+        <v>234.76</v>
       </c>
       <c r="D33" t="n">
-        <v>0.45</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>234.36</v>
+        <v>244.86</v>
       </c>
       <c r="C34" t="n">
-        <v>238.59</v>
+        <v>237.82</v>
       </c>
       <c r="D34" t="n">
-        <v>4.23</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.99</v>
+        <v>247.64</v>
       </c>
       <c r="C35" t="n">
-        <v>234.81</v>
+        <v>244.46</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.18</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>244.86</v>
+        <v>238.55</v>
       </c>
       <c r="C36" t="n">
-        <v>237.84</v>
+        <v>245.16</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.02</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.64</v>
+        <v>239.59</v>
       </c>
       <c r="C37" t="n">
-        <v>244.44</v>
+        <v>239.44</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.2</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>238.55</v>
+        <v>236.58</v>
       </c>
       <c r="C38" t="n">
-        <v>245.14</v>
+        <v>238.99</v>
       </c>
       <c r="D38" t="n">
-        <v>6.59</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-09-20</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>239.59</v>
+        <v>220.5</v>
       </c>
       <c r="C39" t="n">
-        <v>239.44</v>
+        <v>232.08</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.15</v>
+        <v>11.59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>236.58</v>
+        <v>213.72</v>
       </c>
       <c r="C40" t="n">
-        <v>239.02</v>
+        <v>218.76</v>
       </c>
       <c r="D40" t="n">
-        <v>2.44</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.5</v>
+        <v>211.76</v>
       </c>
       <c r="C41" t="n">
-        <v>232.11</v>
+        <v>213.8</v>
       </c>
       <c r="D41" t="n">
-        <v>11.61</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>213.72</v>
+        <v>192.38</v>
       </c>
       <c r="C42" t="n">
-        <v>218.82</v>
+        <v>207.22</v>
       </c>
       <c r="D42" t="n">
-        <v>5.11</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.76</v>
+        <v>205.35</v>
       </c>
       <c r="C43" t="n">
-        <v>213.83</v>
+        <v>195.88</v>
       </c>
       <c r="D43" t="n">
-        <v>2.08</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>192.38</v>
+        <v>203.58</v>
       </c>
       <c r="C44" t="n">
-        <v>207.22</v>
+        <v>204.83</v>
       </c>
       <c r="D44" t="n">
-        <v>14.84</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>205.35</v>
+        <v>210.74</v>
       </c>
       <c r="C45" t="n">
-        <v>195.91</v>
+        <v>206.28</v>
       </c>
       <c r="D45" t="n">
-        <v>-9.44</v>
+        <v>-4.46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>203.58</v>
+        <v>213.05</v>
       </c>
       <c r="C46" t="n">
-        <v>204.84</v>
+        <v>210.56</v>
       </c>
       <c r="D46" t="n">
-        <v>1.26</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>210.74</v>
+        <v>208.74</v>
       </c>
       <c r="C47" t="n">
-        <v>206.24</v>
+        <v>212.81</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.5</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>213.05</v>
+        <v>221.68</v>
       </c>
       <c r="C48" t="n">
-        <v>210.56</v>
+        <v>212.42</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.49</v>
+        <v>-9.26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>208.74</v>
+        <v>234.86</v>
       </c>
       <c r="C49" t="n">
-        <v>212.81</v>
+        <v>222.68</v>
       </c>
       <c r="D49" t="n">
-        <v>4.06</v>
+        <v>-12.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>221.68</v>
+        <v>233</v>
       </c>
       <c r="C50" t="n">
-        <v>212.45</v>
+        <v>233.09</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.23</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>234.86</v>
+        <v>228</v>
       </c>
       <c r="C51" t="n">
-        <v>222.72</v>
+        <v>231.13</v>
       </c>
       <c r="D51" t="n">
-        <v>-12.14</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>233</v>
+        <v>228.6</v>
       </c>
       <c r="C52" t="n">
-        <v>233.09</v>
+        <v>227.86</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>228</v>
+        <v>232.52</v>
       </c>
       <c r="C53" t="n">
-        <v>231.16</v>
+        <v>229.66</v>
       </c>
       <c r="D53" t="n">
-        <v>3.16</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>228.6</v>
+        <v>220.48</v>
       </c>
       <c r="C54" t="n">
-        <v>227.93</v>
+        <v>228.85</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.67</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-06</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>232.52</v>
+        <v>229.1</v>
       </c>
       <c r="C55" t="n">
-        <v>229.71</v>
+        <v>221.58</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.81</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>220.48</v>
+        <v>220.99</v>
       </c>
       <c r="C56" t="n">
-        <v>228.89</v>
+        <v>226.76</v>
       </c>
       <c r="D56" t="n">
-        <v>8.41</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>229.1</v>
+        <v>188.66</v>
       </c>
       <c r="C57" t="n">
-        <v>221.63</v>
+        <v>212.99</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.47</v>
+        <v>24.32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>220.99</v>
+        <v>178.05</v>
       </c>
       <c r="C58" t="n">
-        <v>226.8</v>
+        <v>185.31</v>
       </c>
       <c r="D58" t="n">
-        <v>5.81</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>188.66</v>
+        <v>197.51</v>
       </c>
       <c r="C59" t="n">
-        <v>213.02</v>
+        <v>183.2</v>
       </c>
       <c r="D59" t="n">
-        <v>24.35</v>
+        <v>-14.31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>178.05</v>
+        <v>208.37</v>
       </c>
       <c r="C60" t="n">
-        <v>185.45</v>
+        <v>199.45</v>
       </c>
       <c r="D60" t="n">
-        <v>7.39</v>
+        <v>-8.92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>197.51</v>
+        <v>202.46</v>
       </c>
       <c r="C61" t="n">
-        <v>183.33</v>
+        <v>204.72</v>
       </c>
       <c r="D61" t="n">
-        <v>-14.18</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>208.37</v>
+        <v>194.02</v>
       </c>
       <c r="C62" t="n">
-        <v>199.44</v>
+        <v>200.52</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.93</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>202.46</v>
+        <v>184.69</v>
       </c>
       <c r="C63" t="n">
-        <v>204.68</v>
+        <v>194.19</v>
       </c>
       <c r="D63" t="n">
-        <v>2.22</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>194.02</v>
+        <v>182.03</v>
       </c>
       <c r="C64" t="n">
-        <v>200.54</v>
+        <v>184.64</v>
       </c>
       <c r="D64" t="n">
-        <v>6.52</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>184.69</v>
+        <v>187.66</v>
       </c>
       <c r="C65" t="n">
-        <v>194.26</v>
+        <v>181.97</v>
       </c>
       <c r="D65" t="n">
-        <v>9.57</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>182.03</v>
+        <v>187.8</v>
       </c>
       <c r="C66" t="n">
-        <v>184.76</v>
+        <v>185.68</v>
       </c>
       <c r="D66" t="n">
-        <v>2.72</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>187.66</v>
+        <v>189.75</v>
       </c>
       <c r="C67" t="n">
-        <v>182.09</v>
+        <v>186.91</v>
       </c>
       <c r="D67" t="n">
-        <v>-5.57</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>187.8</v>
+        <v>185.67</v>
       </c>
       <c r="C68" t="n">
-        <v>185.74</v>
+        <v>187.81</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.06</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>189.75</v>
+        <v>180.15</v>
       </c>
       <c r="C69" t="n">
-        <v>186.94</v>
+        <v>184.43</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.81</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>185.67</v>
+        <v>191.39</v>
       </c>
       <c r="C70" t="n">
-        <v>187.85</v>
+        <v>182.69</v>
       </c>
       <c r="D70" t="n">
-        <v>2.19</v>
+        <v>-8.69</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>180.15</v>
+        <v>193.56</v>
       </c>
       <c r="C71" t="n">
-        <v>184.48</v>
+        <v>190.6</v>
       </c>
       <c r="D71" t="n">
-        <v>4.33</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>191.39</v>
+        <v>194.04</v>
       </c>
       <c r="C72" t="n">
-        <v>182.77</v>
+        <v>193.13</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.619999999999999</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>193.56</v>
+        <v>200.03</v>
       </c>
       <c r="C73" t="n">
-        <v>190.64</v>
+        <v>193.94</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.92</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>194.04</v>
+        <v>198.74</v>
       </c>
       <c r="C74" t="n">
-        <v>193.13</v>
+        <v>199.3</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.91</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>200.03</v>
+        <v>194.44</v>
       </c>
       <c r="C75" t="n">
-        <v>193.98</v>
+        <v>197.12</v>
       </c>
       <c r="D75" t="n">
-        <v>-6.05</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>198.74</v>
+        <v>194.41</v>
       </c>
       <c r="C76" t="n">
-        <v>199.33</v>
+        <v>193.2</v>
       </c>
       <c r="D76" t="n">
-        <v>0.59</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>194.44</v>
+        <v>184.62</v>
       </c>
       <c r="C77" t="n">
-        <v>197.17</v>
+        <v>191.29</v>
       </c>
       <c r="D77" t="n">
-        <v>2.73</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>194.41</v>
+        <v>187.21</v>
       </c>
       <c r="C78" t="n">
-        <v>193.28</v>
+        <v>184.58</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.13</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>184.62</v>
+        <v>186.38</v>
       </c>
       <c r="C79" t="n">
-        <v>191.36</v>
+        <v>185.52</v>
       </c>
       <c r="D79" t="n">
-        <v>6.73</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>187.21</v>
+        <v>187.83</v>
       </c>
       <c r="C80" t="n">
-        <v>184.65</v>
+        <v>185.64</v>
       </c>
       <c r="D80" t="n">
-        <v>-2.56</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-03</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>186.38</v>
+        <v>166.09</v>
       </c>
       <c r="C81" t="n">
-        <v>185.6</v>
+        <v>180.05</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.78</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>187.83</v>
+        <v>155.4</v>
       </c>
       <c r="C82" t="n">
-        <v>185.68</v>
+        <v>162.29</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.15</v>
+        <v>6.89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-11-03</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>166.09</v>
+        <v>162.57</v>
       </c>
       <c r="C83" t="n">
-        <v>180.1</v>
+        <v>157.5</v>
       </c>
       <c r="D83" t="n">
-        <v>14.01</v>
+        <v>-5.07</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-11-04</t>
+          <t>2025-11-06</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>155.4</v>
+        <v>155.07</v>
       </c>
       <c r="C84" t="n">
-        <v>162.39</v>
+        <v>159.57</v>
       </c>
       <c r="D84" t="n">
-        <v>6.99</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-11-05</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>162.57</v>
+        <v>161.71</v>
       </c>
       <c r="C85" t="n">
-        <v>157.62</v>
+        <v>155.38</v>
       </c>
       <c r="D85" t="n">
-        <v>-4.95</v>
+        <v>-6.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-11-06</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>155.07</v>
+        <v>158.1</v>
       </c>
       <c r="C86" t="n">
-        <v>159.62</v>
+        <v>159.6</v>
       </c>
       <c r="D86" t="n">
-        <v>4.55</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>161.71</v>
+        <v>164.45</v>
       </c>
       <c r="C87" t="n">
-        <v>155.41</v>
+        <v>161.79</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.29</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-11-10</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>158.1</v>
+        <v>167.37</v>
       </c>
       <c r="C88" t="n">
-        <v>159.65</v>
+        <v>165.36</v>
       </c>
       <c r="D88" t="n">
-        <v>1.54</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-11-11</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>164.45</v>
+        <v>154.57</v>
       </c>
       <c r="C89" t="n">
-        <v>161.79</v>
+        <v>163.09</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.67</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-11-12</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>167.37</v>
+        <v>153.26</v>
       </c>
       <c r="C90" t="n">
-        <v>165.38</v>
+        <v>154.03</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.98</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-13</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>154.57</v>
+        <v>145.11</v>
       </c>
       <c r="C91" t="n">
-        <v>163.13</v>
+        <v>150.35</v>
       </c>
       <c r="D91" t="n">
-        <v>8.57</v>
+        <v>5.24</v>
       </c>
     </row>
   </sheetData>
